--- a/spelunky2_sprite/map_draw.xlsx
+++ b/spelunky2_sprite/map_draw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckckf\OneDrive\Documents\GitHub\2DGP_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckckf\OneDrive\Documents\GitHub\2DGP_Project\spelunky2_sprite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C66B807-1CDD-44B1-80DA-02C6A56E304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE61C6-6731-4EBC-9D1B-06AA69F0FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="4270" windowWidth="24260" windowHeight="16610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="180" windowWidth="24260" windowHeight="17410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:CX50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BI46" sqref="BI46"/>
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
